--- a/Excel-XLSX/UN-TJK.xlsx
+++ b/Excel-XLSX/UN-TJK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>4y1lE3</t>
+    <t>vYG4V4</t>
   </si>
   <si>
     <t>1992</t>
@@ -117,7 +117,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>1993</t>
@@ -129,139 +129,595 @@
     <t>3</t>
   </si>
   <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2164</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>3622</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>4531</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>15354</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>15336</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>11820</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2673</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>3126</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>3270</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2196</t>
+  </si>
+  <si>
+    <t>2122</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2253</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2711</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2516</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2649</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>3783</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>5573</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>10719</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>8601</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>8164</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>9620</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>520000</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>695</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>16000</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>93</t>
   </si>
   <si>
     <t>16700</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1161</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>94</t>
   </si>
   <si>
     <t>25285</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>2164</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>3622</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>KAZ</t>
-  </si>
-  <si>
-    <t>9620</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KGZ</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>95</t>
   </si>
   <si>
     <t>203</t>
@@ -273,127 +729,106 @@
     <t>UZB</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>4531</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>15354</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>15336</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>3427</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>11820</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>3304</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>1816</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2626</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>19469</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>17002</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>4616</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>7151</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>6385</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>6110</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>5391</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>4144</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
   <si>
     <t>262</t>
@@ -405,418 +840,10 @@
     <t>UKN</t>
   </si>
   <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>458</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>1790</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2673</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>2626</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>3126</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>3270</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2196</t>
-  </si>
-  <si>
-    <t>2122</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2253</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>19469</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2711</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>17002</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2516</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2649</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>4616</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>3783</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>7151</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>5573</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>6385</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>10719</t>
-  </si>
-  <si>
-    <t>3046</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>6110</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>9624</t>
-  </si>
-  <si>
-    <t>1638</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>4898</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1228,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1341,8 +1368,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1409,8 +1436,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1427,19 +1454,19 @@
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1454,7 +1481,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>32</v>
@@ -1463,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>32</v>
@@ -1477,8 +1504,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1492,10 +1519,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1522,13 +1549,13 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>32</v>
@@ -1545,8 +1572,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1560,22 +1587,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1590,16 +1617,16 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>32</v>
@@ -1613,8 +1640,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1628,10 +1655,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1658,13 +1685,13 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>32</v>
@@ -1681,8 +1708,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1696,22 +1723,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1726,7 +1753,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
@@ -1735,7 +1762,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>32</v>
@@ -1749,8 +1776,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1764,10 +1791,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -1794,13 +1821,13 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>32</v>
@@ -1817,8 +1844,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1832,22 +1859,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1862,13 +1889,13 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>32</v>
@@ -1885,8 +1912,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1900,22 +1927,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1930,16 +1957,16 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>32</v>
@@ -1953,8 +1980,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1968,10 +1995,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
@@ -1998,13 +2025,13 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>32</v>
@@ -2021,8 +2048,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -2036,22 +2063,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2066,13 +2093,13 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>32</v>
@@ -2089,8 +2116,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -2104,22 +2131,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2134,13 +2161,13 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>32</v>
@@ -2157,8 +2184,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2172,10 +2199,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>25</v>
@@ -2202,13 +2229,13 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>32</v>
@@ -2225,8 +2252,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2240,22 +2267,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2270,13 +2297,13 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>32</v>
@@ -2293,8 +2320,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
+      <c r="V16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2308,22 +2335,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2338,13 +2365,13 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>32</v>
@@ -2361,8 +2388,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>32</v>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2376,22 +2403,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2406,13 +2433,13 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>32</v>
@@ -2429,8 +2456,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2444,22 +2471,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2474,13 +2501,13 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>32</v>
@@ -2497,8 +2524,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2512,22 +2539,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2542,13 +2569,13 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>32</v>
@@ -2565,8 +2592,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2580,10 +2607,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
@@ -2610,13 +2637,13 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>32</v>
@@ -2633,8 +2660,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>32</v>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2648,22 +2675,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2678,13 +2705,13 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>32</v>
@@ -2701,8 +2728,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2716,22 +2743,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2746,13 +2773,13 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>32</v>
@@ -2769,8 +2796,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>32</v>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2784,10 +2811,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2814,13 +2841,13 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>32</v>
@@ -2832,13 +2859,13 @@
         <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>32</v>
+      <c r="V24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2852,22 +2879,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2882,13 +2909,13 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>32</v>
@@ -2900,13 +2927,13 @@
         <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>32</v>
+      <c r="V25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2920,22 +2947,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2950,13 +2977,13 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>32</v>
@@ -2973,8 +3000,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>32</v>
+      <c r="V26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2988,10 +3015,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -3018,13 +3045,13 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>32</v>
@@ -3041,8 +3068,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>32</v>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3056,22 +3083,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3086,13 +3113,13 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>32</v>
@@ -3109,8 +3136,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -3124,22 +3151,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3154,13 +3181,13 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>32</v>
@@ -3177,8 +3204,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>32</v>
+      <c r="V29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3192,22 +3219,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3222,13 +3249,13 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>32</v>
@@ -3245,8 +3272,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>32</v>
+      <c r="V30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3260,10 +3287,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>25</v>
@@ -3290,13 +3317,13 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>32</v>
@@ -3313,8 +3340,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>32</v>
+      <c r="V31" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3328,22 +3355,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3358,13 +3385,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>32</v>
@@ -3396,22 +3423,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3426,13 +3453,13 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>32</v>
@@ -3464,22 +3491,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3494,7 +3521,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>32</v>
@@ -3517,8 +3544,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>32</v>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3532,22 +3559,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3562,13 +3589,13 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>32</v>
@@ -3585,8 +3612,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>32</v>
+      <c r="V35" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3600,22 +3627,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3630,13 +3657,13 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>32</v>
@@ -3653,8 +3680,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>32</v>
+      <c r="V36" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3668,22 +3695,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3698,7 +3725,7 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>32</v>
@@ -3721,8 +3748,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>32</v>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3736,22 +3763,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3766,7 +3793,7 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>32</v>
@@ -3789,8 +3816,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>32</v>
+      <c r="V38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3804,22 +3831,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3834,10 +3861,10 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>32</v>
@@ -3857,8 +3884,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>32</v>
+      <c r="V39" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3872,22 +3899,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3902,13 +3929,13 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>32</v>
@@ -3925,8 +3952,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>32</v>
+      <c r="V40" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3940,22 +3967,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3970,7 +3997,7 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>32</v>
@@ -3993,8 +4020,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>32</v>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -4008,22 +4035,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4038,7 +4065,7 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>32</v>
@@ -4061,8 +4088,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>32</v>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -4076,22 +4103,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4106,13 +4133,13 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>32</v>
@@ -4129,8 +4156,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>32</v>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -4144,22 +4171,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4174,7 +4201,7 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>32</v>
@@ -4197,8 +4224,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>32</v>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -4212,22 +4239,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4242,10 +4269,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>32</v>
@@ -4265,8 +4292,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>32</v>
+      <c r="V45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4280,22 +4307,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4313,7 +4340,7 @@
         <v>32</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>32</v>
@@ -4325,7 +4352,7 @@
         <v>32</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>32</v>
@@ -4333,8 +4360,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>32</v>
+      <c r="V46" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4348,22 +4375,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4378,13 +4405,13 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>32</v>
@@ -4401,8 +4428,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>32</v>
+      <c r="V47" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4416,22 +4443,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4446,7 +4473,7 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>32</v>
@@ -4469,8 +4496,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>32</v>
+      <c r="V48" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4484,22 +4511,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4514,7 +4541,7 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>32</v>
@@ -4537,8 +4564,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>32</v>
+      <c r="V49" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4552,22 +4579,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4582,7 +4609,7 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>32</v>
@@ -4597,7 +4624,7 @@
         <v>32</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>32</v>
@@ -4605,8 +4632,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>32</v>
+      <c r="V50" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4620,22 +4647,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4650,13 +4677,13 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>32</v>
@@ -4673,8 +4700,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>32</v>
+      <c r="V51" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4688,22 +4715,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4718,7 +4745,7 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>32</v>
@@ -4741,8 +4768,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>32</v>
+      <c r="V52" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4756,22 +4783,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4786,7 +4813,7 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>32</v>
@@ -4809,8 +4836,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>32</v>
+      <c r="V53" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4824,22 +4851,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4854,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>32</v>
@@ -4869,7 +4896,7 @@
         <v>32</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>32</v>
@@ -4877,8 +4904,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>32</v>
+      <c r="V54" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -4892,22 +4919,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4922,13 +4949,13 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>32</v>
@@ -4960,22 +4987,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4990,7 +5017,7 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>32</v>
@@ -5028,22 +5055,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5061,7 +5088,7 @@
         <v>32</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>32</v>
@@ -5073,7 +5100,7 @@
         <v>32</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>32</v>
@@ -5081,8 +5108,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>32</v>
+      <c r="V57" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -5096,22 +5123,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5126,13 +5153,13 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>32</v>
@@ -5149,8 +5176,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>32</v>
+      <c r="V58" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -5164,22 +5191,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5194,7 +5221,7 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>32</v>
@@ -5217,8 +5244,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>32</v>
+      <c r="V59" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5232,22 +5259,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5262,10 +5289,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>32</v>
@@ -5285,8 +5312,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>32</v>
+      <c r="V60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5300,22 +5327,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5330,7 +5357,7 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>32</v>
@@ -5345,7 +5372,7 @@
         <v>32</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="T61" s="2" t="s">
         <v>32</v>
@@ -5353,8 +5380,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>32</v>
+      <c r="V61" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5368,22 +5395,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5398,13 +5425,13 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>32</v>
@@ -5421,8 +5448,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>32</v>
+      <c r="V62" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5436,22 +5463,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5466,7 +5493,7 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>32</v>
@@ -5489,8 +5516,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>32</v>
+      <c r="V63" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5504,22 +5531,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5534,10 +5561,10 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>32</v>
@@ -5557,8 +5584,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>32</v>
+      <c r="V64" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -5572,22 +5599,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5602,10 +5629,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>32</v>
@@ -5625,8 +5652,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>32</v>
+      <c r="V65" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -5640,22 +5667,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5670,7 +5697,7 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>32</v>
@@ -5685,7 +5712,7 @@
         <v>32</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>32</v>
@@ -5693,8 +5720,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="2" t="s">
-        <v>32</v>
+      <c r="V66" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5708,22 +5735,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5738,13 +5765,13 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>32</v>
@@ -5761,8 +5788,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>32</v>
+      <c r="V67" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5776,22 +5803,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5806,10 +5833,10 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>32</v>
@@ -5829,8 +5856,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>32</v>
+      <c r="V68" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -5844,22 +5871,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5874,7 +5901,7 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>32</v>
@@ -5897,8 +5924,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="2" t="s">
-        <v>32</v>
+      <c r="V69" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -5912,22 +5939,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5942,13 +5969,13 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>32</v>
@@ -5965,8 +5992,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="2" t="s">
-        <v>32</v>
+      <c r="V70" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -5980,22 +6007,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6013,10 +6040,10 @@
         <v>32</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>32</v>
@@ -6033,8 +6060,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>32</v>
+      <c r="V71" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6048,22 +6075,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6081,7 +6108,7 @@
         <v>32</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>32</v>
@@ -6093,7 +6120,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>32</v>
@@ -6101,8 +6128,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="2" t="s">
-        <v>32</v>
+      <c r="V72" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -6116,22 +6143,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6146,13 +6173,13 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>32</v>
@@ -6169,8 +6196,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>32</v>
+      <c r="V73" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -6184,22 +6211,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6214,10 +6241,10 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>32</v>
@@ -6237,8 +6264,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="2" t="s">
-        <v>32</v>
+      <c r="V74" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -6252,22 +6279,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6282,7 +6309,7 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>32</v>
@@ -6305,8 +6332,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>32</v>
+      <c r="V75" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -6320,22 +6347,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6350,7 +6377,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>32</v>
@@ -6373,8 +6400,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="2" t="s">
-        <v>32</v>
+      <c r="V76" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6388,22 +6415,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6418,10 +6445,10 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>32</v>
@@ -6441,8 +6468,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="2" t="s">
-        <v>32</v>
+      <c r="V77" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6456,22 +6483,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6489,7 +6516,7 @@
         <v>32</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>32</v>
@@ -6501,7 +6528,7 @@
         <v>32</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>32</v>
@@ -6509,8 +6536,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="2" t="s">
-        <v>32</v>
+      <c r="V78" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -6524,22 +6551,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6554,13 +6581,13 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>32</v>
@@ -6572,13 +6599,13 @@
         <v>32</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>32</v>
+      <c r="V79" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -6592,22 +6619,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6622,7 +6649,7 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>32</v>
@@ -6645,8 +6672,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>32</v>
+      <c r="V80" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -6660,22 +6687,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6690,7 +6717,7 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>32</v>
@@ -6713,8 +6740,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="2" t="s">
-        <v>32</v>
+      <c r="V81" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -6728,22 +6755,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G82" s="1" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6758,7 +6785,7 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>32</v>
@@ -6781,8 +6808,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="2" t="s">
-        <v>32</v>
+      <c r="V82" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -6796,22 +6823,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6826,13 +6853,13 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>32</v>
@@ -6849,8 +6876,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="2" t="s">
-        <v>32</v>
+      <c r="V83" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -6864,22 +6891,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6894,7 +6921,7 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
@@ -6909,7 +6936,7 @@
         <v>32</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>32</v>
@@ -6932,22 +6959,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6962,13 +6989,13 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>32</v>
@@ -6980,13 +7007,13 @@
         <v>32</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="2" t="s">
-        <v>32</v>
+      <c r="V85" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -7000,22 +7027,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7030,7 +7057,7 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>32</v>
@@ -7053,8 +7080,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="2" t="s">
-        <v>32</v>
+      <c r="V86" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7068,22 +7095,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7121,8 +7148,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="2" t="s">
-        <v>32</v>
+      <c r="V87" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -7136,22 +7163,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="G88" s="1" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7166,7 +7193,7 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>32</v>
@@ -7181,7 +7208,7 @@
         <v>32</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="T88" s="2" t="s">
         <v>32</v>
@@ -7189,8 +7216,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>32</v>
+      <c r="V88" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -7204,22 +7231,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7234,13 +7261,13 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>32</v>
@@ -7257,8 +7284,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="2" t="s">
-        <v>32</v>
+      <c r="V89" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -7275,19 +7302,19 @@
         <v>225</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7302,7 +7329,7 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>32</v>
@@ -7325,8 +7352,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>32</v>
+      <c r="V90" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -7343,19 +7370,19 @@
         <v>226</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7370,7 +7397,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>32</v>
@@ -7393,8 +7420,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="2" t="s">
-        <v>32</v>
+      <c r="V91" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -7408,22 +7435,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7447,13 +7474,13 @@
         <v>32</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>32</v>
@@ -7461,8 +7488,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>32</v>
+      <c r="V92" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -7476,47 +7503,47 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q93" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="R93" s="2" t="s">
         <v>32</v>
       </c>
@@ -7529,8 +7556,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="2" t="s">
-        <v>32</v>
+      <c r="V93" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -7544,22 +7571,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7574,7 +7601,7 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>32</v>
@@ -7583,7 +7610,7 @@
         <v>32</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>32</v>
@@ -7597,8 +7624,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="2" t="s">
-        <v>32</v>
+      <c r="V94" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -7612,47 +7639,47 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q95" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q95" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="R95" s="2" t="s">
         <v>32</v>
       </c>
@@ -7665,8 +7692,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="2" t="s">
-        <v>32</v>
+      <c r="V95" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -7683,19 +7710,19 @@
         <v>233</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7716,7 +7743,7 @@
         <v>32</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>32</v>
@@ -7725,7 +7752,7 @@
         <v>32</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>32</v>
@@ -7733,8 +7760,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="2" t="s">
-        <v>32</v>
+      <c r="V96" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -7748,22 +7775,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7778,13 +7805,13 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>32</v>
@@ -7793,7 +7820,7 @@
         <v>32</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>32</v>
@@ -7801,8 +7828,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="2" t="s">
-        <v>32</v>
+      <c r="V97" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -7816,22 +7843,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7846,7 +7873,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
@@ -7861,7 +7888,7 @@
         <v>32</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>32</v>
@@ -7869,8 +7896,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="2" t="s">
-        <v>32</v>
+      <c r="V98" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -7884,22 +7911,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7929,7 +7956,7 @@
         <v>32</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>32</v>
@@ -7937,8 +7964,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="2" t="s">
-        <v>32</v>
+      <c r="V99" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -7952,23 +7979,23 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
       </c>
@@ -7982,13 +8009,13 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>32</v>
@@ -7997,7 +8024,7 @@
         <v>32</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>32</v>
@@ -8005,8 +8032,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="2" t="s">
-        <v>32</v>
+      <c r="V100" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -8020,22 +8047,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8050,7 +8077,7 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>32</v>
@@ -8065,7 +8092,7 @@
         <v>32</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="T101" s="2" t="s">
         <v>32</v>
@@ -8073,8 +8100,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="2" t="s">
-        <v>32</v>
+      <c r="V101" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -8088,22 +8115,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8133,7 +8160,7 @@
         <v>32</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T102" s="2" t="s">
         <v>32</v>
@@ -8141,8 +8168,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="2" t="s">
-        <v>32</v>
+      <c r="V102" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -8156,61 +8183,61 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S103" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R103" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S103" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T103" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="2" t="s">
-        <v>32</v>
+      <c r="V103" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -8224,61 +8251,61 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S104" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S104" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T104" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="2" t="s">
-        <v>32</v>
+      <c r="V104" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -8295,19 +8322,19 @@
         <v>251</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8337,7 +8364,7 @@
         <v>32</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>32</v>
@@ -8345,8 +8372,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="2" t="s">
-        <v>32</v>
+      <c r="V105" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -8360,61 +8387,61 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S106" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q106" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R106" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T106" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="2" t="s">
-        <v>32</v>
+      <c r="V106" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -8428,22 +8455,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8458,7 +8485,7 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>32</v>
@@ -8473,7 +8500,7 @@
         <v>32</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="T107" s="2" t="s">
         <v>32</v>
@@ -8481,8 +8508,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="2" t="s">
-        <v>32</v>
+      <c r="V107" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -8496,22 +8523,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8541,7 +8568,7 @@
         <v>32</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T108" s="2" t="s">
         <v>32</v>
@@ -8549,8 +8576,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="2" t="s">
-        <v>32</v>
+      <c r="V108" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -8564,22 +8591,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8594,10 +8621,10 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>32</v>
@@ -8609,7 +8636,7 @@
         <v>32</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>32</v>
@@ -8617,8 +8644,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="2" t="s">
-        <v>32</v>
+      <c r="V109" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -8632,61 +8659,61 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S110" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S110" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T110" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="2" t="s">
-        <v>32</v>
+      <c r="V110" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -8700,61 +8727,333 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V111" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S112" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S111" s="2" t="s">
+      <c r="T112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="T111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U111" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V111" s="2" t="s">
-        <v>32</v>
+      <c r="E113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-TJK.xlsx
+++ b/Excel-XLSX/UN-TJK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>vYG4V4</t>
+    <t>P3pKuT</t>
   </si>
   <si>
     <t>1992</t>
@@ -492,39 +492,39 @@
     <t>2023</t>
   </si>
   <si>
-    <t>8164</t>
-  </si>
-  <si>
-    <t>1056</t>
+    <t>7087</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -825,7 +825,7 @@
     <t>113</t>
   </si>
   <si>
-    <t>4144</t>
+    <t>3827</t>
   </si>
   <si>
     <t>114</t>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>458</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1231,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1368,8 +1371,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1436,8 +1439,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1504,8 +1507,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1572,8 +1575,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1640,8 +1643,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1708,8 +1711,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1776,8 +1779,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1844,8 +1847,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1912,8 +1915,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1980,8 +1983,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2048,8 +2051,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2116,8 +2119,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2184,8 +2187,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2252,8 +2255,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2320,8 +2323,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2388,8 +2391,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2456,8 +2459,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2524,8 +2527,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2592,8 +2595,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2660,8 +2663,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2728,8 +2731,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2796,8 +2799,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2864,8 +2867,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2932,8 +2935,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3000,8 +3003,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3068,8 +3071,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3136,8 +3139,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3204,8 +3207,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3272,8 +3275,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3340,8 +3343,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -3491,22 +3494,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3544,8 +3547,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3559,22 +3562,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3612,8 +3615,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3627,22 +3630,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3680,8 +3683,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3695,22 +3698,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3748,8 +3751,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3763,22 +3766,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3816,8 +3819,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3837,16 +3840,16 @@
         <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3884,8 +3887,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -3905,16 +3908,16 @@
         <v>74</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3952,8 +3955,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -3967,22 +3970,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -4020,8 +4023,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4041,16 +4044,16 @@
         <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4088,8 +4091,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4109,16 +4112,16 @@
         <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4156,8 +4159,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4177,16 +4180,16 @@
         <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4224,8 +4227,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4245,16 +4248,16 @@
         <v>110</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4292,8 +4295,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4313,16 +4316,16 @@
         <v>113</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4360,8 +4363,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4381,16 +4384,16 @@
         <v>116</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4428,8 +4431,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4449,16 +4452,16 @@
         <v>122</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4496,8 +4499,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4517,16 +4520,16 @@
         <v>126</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4564,8 +4567,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4585,16 +4588,16 @@
         <v>131</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4632,8 +4635,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4653,16 +4656,16 @@
         <v>134</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4700,8 +4703,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4721,16 +4724,16 @@
         <v>139</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4768,8 +4771,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -4789,16 +4792,16 @@
         <v>144</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4836,8 +4839,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -4857,16 +4860,16 @@
         <v>149</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4904,8 +4907,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -4925,16 +4928,16 @@
         <v>153</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4993,16 +4996,16 @@
         <v>157</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -5017,7 +5020,7 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>32</v>
@@ -5108,8 +5111,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5176,8 +5179,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5244,8 +5247,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5312,8 +5315,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5380,8 +5383,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5448,8 +5451,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -5516,8 +5519,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -5584,8 +5587,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -5652,8 +5655,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -5720,8 +5723,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -5788,8 +5791,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -5856,8 +5859,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -5924,8 +5927,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -5992,8 +5995,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6060,8 +6063,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6128,8 +6131,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6196,8 +6199,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6264,8 +6267,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6309,7 +6312,7 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>32</v>
@@ -6332,8 +6335,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6377,7 +6380,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>32</v>
@@ -6400,8 +6403,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6468,8 +6471,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6536,8 +6539,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -6604,8 +6607,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -6672,8 +6675,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -6740,8 +6743,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -6808,8 +6811,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -6876,8 +6879,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -6921,10 +6924,10 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>32</v>
@@ -7012,8 +7015,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7080,8 +7083,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7148,8 +7151,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7216,8 +7219,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7284,8 +7287,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7352,8 +7355,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7420,8 +7423,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -7435,7 +7438,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>34</v>
@@ -7488,8 +7491,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -7556,8 +7559,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -7624,8 +7627,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -7692,8 +7695,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -7760,8 +7763,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -7828,8 +7831,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -7896,8 +7899,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -7964,8 +7967,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8032,8 +8035,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8100,8 +8103,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8168,8 +8171,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8236,8 +8239,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8304,8 +8307,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -8372,8 +8375,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -8440,8 +8443,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -8508,8 +8511,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -8576,8 +8579,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -8644,8 +8647,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -8712,8 +8715,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -8780,8 +8783,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -8848,8 +8851,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9052,8 +9055,76 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-TJK.xlsx
+++ b/Excel-XLSX/UN-TJK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -129,13 +129,25 @@
     <t>3</t>
   </si>
   <si>
+    <t>520000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>1994</t>
   </si>
   <si>
     <t>695</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>1995</t>
@@ -147,7 +159,13 @@
     <t>50</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16700</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>1996</t>
@@ -156,7 +174,25 @@
     <t>1161</t>
   </si>
   <si>
-    <t>6</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>25285</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>1997</t>
@@ -165,7 +201,22 @@
     <t>2164</t>
   </si>
   <si>
-    <t>7</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>1998</t>
@@ -174,7 +225,55 @@
     <t>3622</t>
   </si>
   <si>
-    <t>8</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>9620</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>1999</t>
@@ -183,7 +282,13 @@
     <t>4531</t>
   </si>
   <si>
-    <t>9</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>2000</t>
@@ -195,7 +300,13 @@
     <t>233</t>
   </si>
   <si>
-    <t>10</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>2001</t>
@@ -207,7 +318,25 @@
     <t>376</t>
   </si>
   <si>
-    <t>11</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>2002</t>
@@ -222,7 +351,16 @@
     <t>11820</t>
   </si>
   <si>
-    <t>12</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>2003</t>
@@ -237,7 +375,7 @@
     <t>144</t>
   </si>
   <si>
-    <t>13</t>
+    <t>35</t>
   </si>
   <si>
     <t>2004</t>
@@ -249,7 +387,31 @@
     <t>65</t>
   </si>
   <si>
-    <t>14</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>2005</t>
@@ -258,13 +420,13 @@
     <t>1006</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>2006</t>
@@ -279,7 +441,31 @@
     <t>51</t>
   </si>
   <si>
-    <t>16</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>2007</t>
@@ -291,10 +477,16 @@
     <t>142</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>249</t>
   </si>
   <si>
     <t>2008</t>
@@ -303,10 +495,13 @@
     <t>1790</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>2009</t>
@@ -318,10 +513,16 @@
     <t>1510</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2626</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>2010</t>
@@ -333,7 +534,19 @@
     <t>1607</t>
   </si>
   <si>
-    <t>38</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>2011</t>
@@ -342,10 +555,25 @@
     <t>3270</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
   <si>
     <t>2012</t>
@@ -357,13 +585,49 @@
     <t>2122</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
     <t>2253</t>
   </si>
   <si>
-    <t>23</t>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>2014</t>
@@ -375,13 +639,22 @@
     <t>123</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
   <si>
     <t>2015</t>
@@ -396,6 +669,21 @@
     <t>102</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>19469</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
@@ -408,7 +696,13 @@
     <t>119</t>
   </si>
   <si>
-    <t>26</t>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>17002</t>
   </si>
   <si>
     <t>2017</t>
@@ -420,6 +714,21 @@
     <t>440</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
@@ -429,10 +738,13 @@
     <t>315</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>97</t>
+  </si>
+  <si>
+    <t>4616</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>2019</t>
@@ -444,10 +756,10 @@
     <t>1413</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>101</t>
+  </si>
+  <si>
+    <t>7151</t>
   </si>
   <si>
     <t>2020</t>
@@ -459,10 +771,16 @@
     <t>408</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>6385</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
   <si>
     <t>2021</t>
@@ -474,7 +792,16 @@
     <t>3046</t>
   </si>
   <si>
-    <t>31</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>6110</t>
+  </si>
+  <si>
+    <t>108</t>
   </si>
   <si>
     <t>2022</t>
@@ -486,7 +813,16 @@
     <t>1113</t>
   </si>
   <si>
-    <t>32</t>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>5391</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>2023</t>
@@ -498,355 +834,46 @@
     <t>1382</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>KAZ</t>
-  </si>
-  <si>
-    <t>9620</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KGZ</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>520000</t>
-  </si>
-  <si>
-    <t>16000</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>16700</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>25285</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>UZB</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>2626</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>19469</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>17002</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>4616</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>7151</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>6385</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>6110</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
-    <t>5391</t>
-  </si>
-  <si>
     <t>113</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>3827</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
     <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>8253</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>3629</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2775</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1258,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1457,43 +1484,43 @@
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>32</v>
@@ -1522,10 +1549,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1552,13 +1579,13 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>32</v>
@@ -1590,22 +1617,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1620,16 +1647,16 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>32</v>
@@ -1658,10 +1685,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1688,13 +1715,13 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>32</v>
@@ -1726,22 +1753,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1756,7 +1783,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
@@ -1765,7 +1792,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>32</v>
@@ -1794,10 +1821,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -1824,13 +1851,13 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>32</v>
@@ -1862,22 +1889,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1892,13 +1919,13 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>32</v>
@@ -1930,22 +1957,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1960,16 +1987,16 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>32</v>
@@ -1998,10 +2025,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
@@ -2028,13 +2055,13 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>32</v>
@@ -2066,22 +2093,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2096,13 +2123,13 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>32</v>
@@ -2134,22 +2161,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2164,13 +2191,13 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>32</v>
@@ -2202,10 +2229,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>25</v>
@@ -2232,13 +2259,13 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>32</v>
@@ -2270,22 +2297,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2300,13 +2327,13 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>32</v>
@@ -2338,22 +2365,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2368,13 +2395,13 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>32</v>
@@ -2406,22 +2433,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2436,13 +2463,13 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>32</v>
@@ -2474,22 +2501,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2504,13 +2531,13 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>32</v>
@@ -2542,22 +2569,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2572,13 +2599,13 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>32</v>
@@ -2610,10 +2637,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
@@ -2640,13 +2667,13 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>32</v>
@@ -2678,22 +2705,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2708,13 +2735,13 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>32</v>
@@ -2746,22 +2773,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2776,13 +2803,13 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>32</v>
@@ -2814,10 +2841,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2844,13 +2871,13 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>32</v>
@@ -2862,7 +2889,7 @@
         <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>33</v>
@@ -2882,22 +2909,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2912,13 +2939,13 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>32</v>
@@ -2930,7 +2957,7 @@
         <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>33</v>
@@ -2950,22 +2977,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2980,13 +3007,13 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>32</v>
@@ -3018,10 +3045,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -3048,13 +3075,13 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>32</v>
@@ -3086,22 +3113,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3116,13 +3143,13 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>32</v>
@@ -3154,22 +3181,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3184,13 +3211,13 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>32</v>
@@ -3222,22 +3249,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3252,13 +3279,13 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>32</v>
@@ -3290,10 +3317,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>25</v>
@@ -3320,13 +3347,13 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>32</v>
@@ -3358,22 +3385,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3388,13 +3415,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>32</v>
@@ -3426,22 +3453,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3456,13 +3483,13 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>32</v>
@@ -3494,22 +3521,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3524,7 +3551,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>32</v>
@@ -3562,22 +3589,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3592,13 +3619,13 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>32</v>
@@ -3630,22 +3657,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3660,13 +3687,13 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>32</v>
@@ -3698,22 +3725,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3728,7 +3755,7 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>32</v>
@@ -3766,22 +3793,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3796,7 +3823,7 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>32</v>
@@ -3834,22 +3861,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3864,10 +3891,10 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>32</v>
@@ -3902,22 +3929,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3932,13 +3959,13 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>32</v>
@@ -3970,22 +3997,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -4000,7 +4027,7 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>32</v>
@@ -4038,22 +4065,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4068,7 +4095,7 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>32</v>
@@ -4106,22 +4133,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4136,13 +4163,13 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>32</v>
@@ -4174,22 +4201,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4204,7 +4231,7 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>32</v>
@@ -4242,22 +4269,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4272,10 +4299,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>32</v>
@@ -4310,22 +4337,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4343,7 +4370,7 @@
         <v>32</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>32</v>
@@ -4355,7 +4382,7 @@
         <v>32</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>32</v>
@@ -4378,22 +4405,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4408,13 +4435,13 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>32</v>
@@ -4446,22 +4473,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4476,7 +4503,7 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>32</v>
@@ -4514,22 +4541,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4544,7 +4571,7 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>32</v>
@@ -4582,22 +4609,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4612,7 +4639,7 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>32</v>
@@ -4627,7 +4654,7 @@
         <v>32</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>32</v>
@@ -4650,22 +4677,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4680,13 +4707,13 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>32</v>
@@ -4718,22 +4745,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4748,7 +4775,7 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>32</v>
@@ -4786,22 +4813,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4816,7 +4843,7 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>32</v>
@@ -4854,22 +4881,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4884,7 +4911,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>32</v>
@@ -4899,7 +4926,7 @@
         <v>32</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>32</v>
@@ -4922,43 +4949,43 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="O55" s="2" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>32</v>
@@ -4990,22 +5017,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -5020,7 +5047,7 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>32</v>
@@ -5058,22 +5085,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5091,7 +5118,7 @@
         <v>32</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>32</v>
@@ -5103,7 +5130,7 @@
         <v>32</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>32</v>
@@ -5126,22 +5153,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5156,13 +5183,13 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>32</v>
@@ -5194,22 +5221,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5224,7 +5251,7 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>32</v>
@@ -5262,22 +5289,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5292,10 +5319,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>32</v>
@@ -5330,22 +5357,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5360,7 +5387,7 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>32</v>
@@ -5375,7 +5402,7 @@
         <v>32</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="T61" s="2" t="s">
         <v>32</v>
@@ -5398,22 +5425,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5428,13 +5455,13 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>32</v>
@@ -5466,22 +5493,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5496,7 +5523,7 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>32</v>
@@ -5534,22 +5561,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5564,10 +5591,10 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>32</v>
@@ -5602,22 +5629,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5632,10 +5659,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>32</v>
@@ -5670,22 +5697,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5700,7 +5727,7 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>32</v>
@@ -5715,7 +5742,7 @@
         <v>32</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>32</v>
@@ -5738,22 +5765,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5768,13 +5795,13 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>32</v>
@@ -5806,22 +5833,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5836,10 +5863,10 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>32</v>
@@ -5874,22 +5901,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5904,7 +5931,7 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>32</v>
@@ -5942,22 +5969,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5972,13 +5999,13 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>32</v>
@@ -6010,22 +6037,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6043,10 +6070,10 @@
         <v>32</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>32</v>
@@ -6078,22 +6105,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6111,7 +6138,7 @@
         <v>32</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>32</v>
@@ -6123,7 +6150,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>32</v>
@@ -6146,22 +6173,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6176,13 +6203,13 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>32</v>
@@ -6214,22 +6241,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6244,10 +6271,10 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>32</v>
@@ -6282,22 +6309,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6312,7 +6339,7 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>32</v>
@@ -6350,22 +6377,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6380,7 +6407,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>32</v>
@@ -6418,22 +6445,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6448,10 +6475,10 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>32</v>
@@ -6486,22 +6513,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6519,7 +6546,7 @@
         <v>32</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>32</v>
@@ -6531,7 +6558,7 @@
         <v>32</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>32</v>
@@ -6554,22 +6581,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6584,13 +6611,13 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>32</v>
@@ -6602,7 +6629,7 @@
         <v>32</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>33</v>
@@ -6622,22 +6649,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6652,7 +6679,7 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>32</v>
@@ -6690,22 +6717,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6720,7 +6747,7 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>32</v>
@@ -6758,22 +6785,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6788,7 +6815,7 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>32</v>
@@ -6826,22 +6853,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6856,13 +6883,13 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>32</v>
@@ -6894,22 +6921,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6927,7 +6954,7 @@
         <v>32</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>32</v>
@@ -6939,7 +6966,7 @@
         <v>32</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>32</v>
@@ -6962,22 +6989,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6992,13 +7019,13 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>32</v>
@@ -7010,7 +7037,7 @@
         <v>32</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="U85" s="1" t="s">
         <v>33</v>
@@ -7030,22 +7057,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7060,7 +7087,7 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>32</v>
@@ -7098,22 +7125,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7166,52 +7193,52 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="H88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S88" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="T88" s="2" t="s">
         <v>32</v>
@@ -7234,43 +7261,43 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O89" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P89" s="2" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>32</v>
@@ -7302,22 +7329,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7332,7 +7359,7 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>32</v>
@@ -7370,22 +7397,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7400,7 +7427,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>32</v>
@@ -7438,22 +7465,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7477,13 +7504,13 @@
         <v>32</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>32</v>
@@ -7506,22 +7533,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7536,16 +7563,16 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="R93" s="2" t="s">
         <v>32</v>
@@ -7574,22 +7601,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7604,7 +7631,7 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>32</v>
@@ -7613,7 +7640,7 @@
         <v>32</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>32</v>
@@ -7642,22 +7669,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7678,10 +7705,10 @@
         <v>32</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>32</v>
@@ -7710,52 +7737,52 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S96" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>32</v>
@@ -7778,43 +7805,43 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="O97" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P97" s="2" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>32</v>
@@ -7823,7 +7850,7 @@
         <v>32</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>32</v>
@@ -7846,22 +7873,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7876,7 +7903,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
@@ -7891,7 +7918,7 @@
         <v>32</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>32</v>
@@ -7914,52 +7941,52 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S99" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q99" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R99" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S99" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>32</v>
@@ -7982,43 +8009,43 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P100" s="2" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>32</v>
@@ -8027,7 +8054,7 @@
         <v>32</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>32</v>
@@ -8050,22 +8077,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8080,7 +8107,7 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>32</v>
@@ -8095,7 +8122,7 @@
         <v>32</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="T101" s="2" t="s">
         <v>32</v>
@@ -8118,22 +8145,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8186,22 +8213,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8216,13 +8243,13 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>32</v>
@@ -8231,7 +8258,7 @@
         <v>32</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>32</v>
@@ -8254,22 +8281,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8284,7 +8311,7 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>32</v>
@@ -8299,7 +8326,7 @@
         <v>32</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="T104" s="2" t="s">
         <v>32</v>
@@ -8322,22 +8349,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8367,7 +8394,7 @@
         <v>32</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>32</v>
@@ -8390,22 +8417,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8420,13 +8447,13 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>32</v>
@@ -8435,7 +8462,7 @@
         <v>32</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="T106" s="2" t="s">
         <v>32</v>
@@ -8458,22 +8485,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8488,7 +8515,7 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>32</v>
@@ -8503,7 +8530,7 @@
         <v>32</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="T107" s="2" t="s">
         <v>32</v>
@@ -8526,22 +8553,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8571,7 +8598,7 @@
         <v>32</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="T108" s="2" t="s">
         <v>32</v>
@@ -8594,22 +8621,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8624,13 +8651,13 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>32</v>
@@ -8639,7 +8666,7 @@
         <v>32</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>32</v>
@@ -8662,22 +8689,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8692,7 +8719,7 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>32</v>
@@ -8707,7 +8734,7 @@
         <v>32</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="T110" s="2" t="s">
         <v>32</v>
@@ -8730,22 +8757,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="G111" s="1" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8775,7 +8802,7 @@
         <v>32</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="T111" s="2" t="s">
         <v>32</v>
@@ -8798,22 +8825,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8828,13 +8855,13 @@
         <v>30</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="Q112" s="2" t="s">
         <v>32</v>
@@ -8843,7 +8870,7 @@
         <v>32</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>32</v>
@@ -8866,22 +8893,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8896,7 +8923,7 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>32</v>
@@ -8911,7 +8938,7 @@
         <v>32</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>32</v>
@@ -8934,22 +8961,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8967,7 +8994,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>32</v>
@@ -8979,7 +9006,7 @@
         <v>32</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="T114" s="2" t="s">
         <v>32</v>
@@ -9002,22 +9029,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9035,19 +9062,19 @@
         <v>32</v>
       </c>
       <c r="O115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S115" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S115" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="T115" s="2" t="s">
         <v>32</v>
@@ -9073,19 +9100,19 @@
         <v>276</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9124,6 +9151,346 @@
         <v>33</v>
       </c>
       <c r="V116" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V121" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-TJK.xlsx
+++ b/Excel-XLSX/UN-TJK.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>P3pKuT</t>
+    <t>7AkEyF</t>
   </si>
   <si>
     <t>1992</t>
@@ -855,10 +855,10 @@
     <t>2024</t>
   </si>
   <si>
-    <t>8253</t>
-  </si>
-  <si>
-    <t>2115</t>
+    <t>9902</t>
+  </si>
+  <si>
+    <t>3029</t>
   </si>
   <si>
     <t>117</t>
@@ -867,13 +867,13 @@
     <t>118</t>
   </si>
   <si>
-    <t>3629</t>
+    <t>4466</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>2775</t>
+    <t>2250</t>
   </si>
 </sst>
 </file>
@@ -9201,7 +9201,7 @@
         <v>280</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>32</v>
